--- a/biology/Médecine/Aide_médicale_d'État/Aide_médicale_d'État.xlsx
+++ b/biology/Médecine/Aide_médicale_d'État/Aide_médicale_d'État.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+          <t>Aide_médicale_d'État</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aide médicale d'État (AME), officiellement appelée aide médicale de l’État, est une aide sociale en France principalement destinée à prendre en charge les dépenses médicales des étrangers en situation irrégulière sur le territoire français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+          <t>Aide_médicale_d'État</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avant l'AME
-Précurseur de l'AME, l'assistance médicale gratuite (AMG) avait été créée par la loi du 15 juillet 1893 permettant aux malades les plus pauvres (malades, vieillards et infirmes privés de ressources) de bénéficier d’un accès gratuit aux soins de santé. Après la création de la Sécurité sociale en 1945, le dispositif est précisé par le décret no 53-1186 du 29 novembre 1953 relatif à la réforme des lois d’assistance dont l’article 1er énonce : « Toute personne résidant en France bénéficie, si elle remplit les conditions légales d’attribution, des formes de l’aide sociale […][1]. » Complétant la loi no 83-8 du 7 janvier 1983, la loi no 83-663  du 22 juillet 1983 organise dans le cadre des « lois de décentralisation » le transfert de l'AMG aux départements instaurant l’Aide médicale départementale (AMD). La loi no 92-722 du 29 juillet 1992 — portant adaptation de la loi no 88-1088 du 1er décembre 1988 relative au revenu minimum d'insertion (RMI) et relative à la lutte contre la pauvreté et l’exclusion sociale et professionnelle — assouplit les conditions d’accès à l’AMD en l'accordant à tous les bénéficiaires du RMI[1].
-La loi du 24 août 1993 relative à la maîtrise de l’immigration et aux conditions d’entrée, d’accueil et de séjour des étrangers en France, dite « loi Pasqua », introduit une condition de régularité de séjour pour bénéficier de l’assurance maladie[1].
-Entrée en vigueur le 1er janvier 2000 par Bernard Kouchner et Martine Aubry, ministres du gouvernement Lionel Jospin, l'AME remplace l'aide médicale gratuite (AMG) de par la loi 99-641 du 27 juillet 1999 relative à la Couverture maladie universelle (CMU). Celle-ci devait à l’origine faire disparaître l’AMD et unifier tous les résidents de France dans une protection maladie « universelle », égale pour tous. Mais le maintien de l’exigence de le régularité de séjour pour bénéficier de l’assurance maladie conduit au maintien d’un dispositif spécifique pour les sans-papiers[1].
-Réforme de 2011
-Dans un rapport publié en 2007, l'IGAS et l'IGF concluent à la nécessité du maintien du dispositif existant et écartaient la possibilité de limiter la prise en charge aux seuls soins urgents ou de définir un panier de soins spécifiques[2].
-Le 16 juin 2010, la ministre de la Santé, Roselyne Bachelot, a déclaré devant la commission des finances du Sénat, qu'une « participation financière des bénéficiaires » s'imposait et qu'elle comptait « la proposer dans le prochain projet de loi de finances » pour 2011[3]. Le gouvernement Fillon pourrait mettre en place un « droit d'entrée » de 15 ou 30 euros à acquitter chaque année. Le gouvernement le justifie par la hausse depuis plusieurs années du coût de l'AME (+15 % en 2009, avec 546 millions d'euros)[4]. Réclamée par l'UMP lors de l'examen de la loi sur l'immigration de 2010, sa refonte a été renvoyée aux débats sur le projet de loi de finances. Un rapport de l'Inspection générale des affaires sociales (IGAS) et de l'Inspection générale des finances (IGF), prévu fin novembre 2010, ont été demandés sur ce thème.
-Le 2 novembre 2010, l'Assemblée nationale a adopté un projet de loi visant à imposer des conditions à l'accès à l'AME. À la suite d'amendements proposés par les députés UMP Dominique Tian et Claude Goasguen, le législateur a souhaité revenir aux principes de création de l'AME, qu'il juge actuellement « dévoyée ».
-Avec la réforme de 2011, les bénéficiaires de l'AME devront s'acquitter de frais préalables de 30 euros par an. Seuls leurs conjoint(s) et leurs enfants pourront être leurs ayants droit. Auparavant les ascendants et les collatéraux pouvaient également être les ayants droit du bénéficiaire. Le quotidien Libération parle de la « colère des associations » au vu des projets de réforme et fait remarquer : « faire payer 30 euros aux 210 000 bénéficiaires ne rapporterait que 6 millions d'euros »[5]. D'autres estiment que cette mesure risque d'accroître les dépenses de l'Etat[6].
-La loi de finances de 2011[7] introduit, pour les demandes déposées à compter du 1er mars 2011, l'acquittement d'un droit d'entrée annuel de 30 euros pour les étrangers majeurs. Cette modification met fin à la gratuité pour les demandeurs bénéficiant de ressources inférieures à un montant révisé annuellement. Ainsi, en 2011, les étrangers en situation irrégulière bénéficiaires de l'AME étaient ceux dont les revenus ne dépassaient pas 634 euros par mois [8]. Cependant, l'abrogation de la franchise de 30 € et de l'autorisation préalable de prise en charge pour les soins hospitaliers ont été votées par le Parlement le 31 juillet 2012 dans le cadre de la loi de finances rectificative, selon le projet de François Hollande, formulé dans ses « 60 engagements pour la France » pendant la campagne présidentielle de 2012[9],[10]. La mesure est dénoncée par la droite[11].
-Réforme 2024
-La droite tente à de multiples reprises à partir de 2012 de réduire ou supprimer l'AME[12],[13],[14],[15],[16],[17],[18], mais la mesure est à chaque fois bloquée par l'Assemblée nationale[19].
-En décembre 2023, acculée par la droite pendant les négociations de la commission mixte paritaire sur le projet de loi immigration, Élisabeth Borne promet d’« engager en début d’année 2024 » une réforme de l’AME[20]. Le projet le loi prévoit que l'AME est maintenue mais sera étudiée séparément en 2024[21],[22]. Quand Élisabeth Borne affirme le 20 décembre qu'il n'est « pas question de supprimer l’AME »[23], Emmanuel Macron s'étonne de ce « revirement »[24]. Devenu Premier ministre, Gabriel Attal confirme qu’une réforme de l'AME interviendra par voie réglementaire avant l'été 2024[25], avec comme base le rapport Evin-Stefanini[26],[27].
+          <t>Avant l'AME</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Précurseur de l'AME, l'assistance médicale gratuite (AMG) avait été créée par la loi du 15 juillet 1893 permettant aux malades les plus pauvres (malades, vieillards et infirmes privés de ressources) de bénéficier d’un accès gratuit aux soins de santé. Après la création de la Sécurité sociale en 1945, le dispositif est précisé par le décret no 53-1186 du 29 novembre 1953 relatif à la réforme des lois d’assistance dont l’article 1er énonce : « Toute personne résidant en France bénéficie, si elle remplit les conditions légales d’attribution, des formes de l’aide sociale […]. » Complétant la loi no 83-8 du 7 janvier 1983, la loi no 83-663  du 22 juillet 1983 organise dans le cadre des « lois de décentralisation » le transfert de l'AMG aux départements instaurant l’Aide médicale départementale (AMD). La loi no 92-722 du 29 juillet 1992 — portant adaptation de la loi no 88-1088 du 1er décembre 1988 relative au revenu minimum d'insertion (RMI) et relative à la lutte contre la pauvreté et l’exclusion sociale et professionnelle — assouplit les conditions d’accès à l’AMD en l'accordant à tous les bénéficiaires du RMI.
+La loi du 24 août 1993 relative à la maîtrise de l’immigration et aux conditions d’entrée, d’accueil et de séjour des étrangers en France, dite « loi Pasqua », introduit une condition de régularité de séjour pour bénéficier de l’assurance maladie.
+Entrée en vigueur le 1er janvier 2000 par Bernard Kouchner et Martine Aubry, ministres du gouvernement Lionel Jospin, l'AME remplace l'aide médicale gratuite (AMG) de par la loi 99-641 du 27 juillet 1999 relative à la Couverture maladie universelle (CMU). Celle-ci devait à l’origine faire disparaître l’AMD et unifier tous les résidents de France dans une protection maladie « universelle », égale pour tous. Mais le maintien de l’exigence de le régularité de séjour pour bénéficier de l’assurance maladie conduit au maintien d’un dispositif spécifique pour les sans-papiers.
 </t>
         </is>
       </c>
@@ -536,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+          <t>Aide_médicale_d'État</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,20 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Principe et bénéficiaires</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette aide médicale est une couverture maladie totale, comme la protection universelle maladie (PUMa) pour les nationaux. En cas de perte de la PUMa, l'AME peut même, dans certains cas, prendre le relais[28]. Lorsque des soins sont indispensables avant l'ouverture des droits a l'AME ou la PUMa il existe les dispositifs des Soins Urgents et Vitaux[29] si une hospitalisation est nécessaire, et de la Permanence d'Accès aux Soins de Santé pour les soins ambulatoires[30].
-Ces bénéficiaires sont listés à l'article L251-1 du Code de l'action sociale et des familles[31].
-Il s'agit[32] :
-des étrangers en situation irrégulière au regard de la réglementation relative au séjour en France (absence de titre de séjour ou de récépissé de demande) et les ressortissants communautaires[33] ne disposant pas d'un droit au séjour au-delà de trois mois de résidence en France),
-des ayants droit du bénéficiaire (enfant, personne à charge),
-des étrangers placés en rétention administrative,
-des personnes (françaises ou étrangères) gardées à vue.
-Exception mahoraise
-L'AME n'existe pas à Mayotte, mais les soins sont pris en charge par l’agence régionale de santé. Les personnes en situation irrégulière ne disposent d’aucune protection et doivent payer leurs soins[34], malgré les demandes du Défenseur des droits[35].
+          <t>Réforme de 2011</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un rapport publié en 2007, l'IGAS et l'IGF concluent à la nécessité du maintien du dispositif existant et écartaient la possibilité de limiter la prise en charge aux seuls soins urgents ou de définir un panier de soins spécifiques.
+Le 16 juin 2010, la ministre de la Santé, Roselyne Bachelot, a déclaré devant la commission des finances du Sénat, qu'une « participation financière des bénéficiaires » s'imposait et qu'elle comptait « la proposer dans le prochain projet de loi de finances » pour 2011. Le gouvernement Fillon pourrait mettre en place un « droit d'entrée » de 15 ou 30 euros à acquitter chaque année. Le gouvernement le justifie par la hausse depuis plusieurs années du coût de l'AME (+15 % en 2009, avec 546 millions d'euros). Réclamée par l'UMP lors de l'examen de la loi sur l'immigration de 2010, sa refonte a été renvoyée aux débats sur le projet de loi de finances. Un rapport de l'Inspection générale des affaires sociales (IGAS) et de l'Inspection générale des finances (IGF), prévu fin novembre 2010, ont été demandés sur ce thème.
+Le 2 novembre 2010, l'Assemblée nationale a adopté un projet de loi visant à imposer des conditions à l'accès à l'AME. À la suite d'amendements proposés par les députés UMP Dominique Tian et Claude Goasguen, le législateur a souhaité revenir aux principes de création de l'AME, qu'il juge actuellement « dévoyée ».
+Avec la réforme de 2011, les bénéficiaires de l'AME devront s'acquitter de frais préalables de 30 euros par an. Seuls leurs conjoint(s) et leurs enfants pourront être leurs ayants droit. Auparavant les ascendants et les collatéraux pouvaient également être les ayants droit du bénéficiaire. Le quotidien Libération parle de la « colère des associations » au vu des projets de réforme et fait remarquer : « faire payer 30 euros aux 210 000 bénéficiaires ne rapporterait que 6 millions d'euros ». D'autres estiment que cette mesure risque d'accroître les dépenses de l'Etat.
+La loi de finances de 2011 introduit, pour les demandes déposées à compter du 1er mars 2011, l'acquittement d'un droit d'entrée annuel de 30 euros pour les étrangers majeurs. Cette modification met fin à la gratuité pour les demandeurs bénéficiant de ressources inférieures à un montant révisé annuellement. Ainsi, en 2011, les étrangers en situation irrégulière bénéficiaires de l'AME étaient ceux dont les revenus ne dépassaient pas 634 euros par mois . Cependant, l'abrogation de la franchise de 30 € et de l'autorisation préalable de prise en charge pour les soins hospitaliers ont été votées par le Parlement le 31 juillet 2012 dans le cadre de la loi de finances rectificative, selon le projet de François Hollande, formulé dans ses « 60 engagements pour la France » pendant la campagne présidentielle de 2012,. La mesure est dénoncée par la droite.
 </t>
         </is>
       </c>
@@ -575,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+          <t>Aide_médicale_d'État</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,18 +600,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Les différentes AME</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Organisée aux articles article L251-1 et suivants du Code de l'action sociale et des familles[31], l'AME est divisée en trois régimes. Le premier alinéa de l'article prévoit l'AME « de droit commun », le deuxième alinéa de « l’AME humanitaire » et le troisième établissant l’aide médicale dont bénéficient les personnes gardées à vue.
-L'AME de droit commun
-« Tout étranger résidant en France de manière ininterrompue depuis plus de trois mois, sans remplir la condition de régularité mentionnée à l'article L. 380-1 du code de la sécurité sociale et dont les ressources ne dépassent pas le plafond mentionné à l'article L. 861-1 de ce code a droit, pour lui-même et les personnes à sa charge au sens de l'article L. 161-14 et des 1° à 3° de l'article L. 313-3 de ce code, à l'aide médicale de l'État, sous réserve, s'il est majeur, de s'être acquitté, à son propre titre et au titre des personnes majeures à sa charge telles que définies ci-dessus, du droit annuel mentionné à l'article 968 E du code général des impôts. »[31].
-L'AME humanitaire
-« En outre, toute personne qui, ne résidant pas en France, est présente sur le territoire français, et dont l'état de santé le justifie, peut, par décision individuelle prise par le ministre chargé de l'action sociale, bénéficier de l'aide médicale de l'État dans les conditions prévues par l'article L. 252-1. Dans ce cas, la prise en charge des dépenses mentionnées à l'article L. 251-2 peut être partielle. »[31].
-L'AME de garde à vue
-« De même, toute personne gardée à vue sur le territoire français, qu'elle réside ou non en France, peut, si son état de santé le justifie, bénéficier de l'aide médicale de l'État, dans des conditions définies par décret. »[31].</t>
+          <t>Réforme 2024</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La droite tente à de multiples reprises à partir de 2012 de réduire ou supprimer l'AME mais la mesure est à chaque fois bloquée par l'Assemblée nationale.
+En décembre 2023, acculée par la droite pendant les négociations de la commission mixte paritaire sur le projet de loi immigration, Élisabeth Borne promet d’« engager en début d’année 2024 » une réforme de l’AME. Le projet le loi prévoit que l'AME est maintenue mais sera étudiée séparément en 2024,. Quand Élisabeth Borne affirme le 20 décembre qu'il n'est « pas question de supprimer l’AME », Emmanuel Macron s'étonne de ce « revirement ». Devenu Premier ministre, Gabriel Attal confirme qu’une réforme de l'AME interviendra par voie réglementaire avant l'été 2024, avec comme base le rapport Evin-Stefanini,.
+</t>
         </is>
       </c>
     </row>
@@ -611,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+          <t>Aide_médicale_d'État</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,18 +638,273 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Principe et bénéficiaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette aide médicale est une couverture maladie totale, comme la protection universelle maladie (PUMa) pour les nationaux. En cas de perte de la PUMa, l'AME peut même, dans certains cas, prendre le relais. Lorsque des soins sont indispensables avant l'ouverture des droits a l'AME ou la PUMa il existe les dispositifs des Soins Urgents et Vitaux si une hospitalisation est nécessaire, et de la Permanence d'Accès aux Soins de Santé pour les soins ambulatoires.
+Ces bénéficiaires sont listés à l'article L251-1 du Code de l'action sociale et des familles.
+Il s'agit :
+des étrangers en situation irrégulière au regard de la réglementation relative au séjour en France (absence de titre de séjour ou de récépissé de demande) et les ressortissants communautaires ne disposant pas d'un droit au séjour au-delà de trois mois de résidence en France),
+des ayants droit du bénéficiaire (enfant, personne à charge),
+des étrangers placés en rétention administrative,
+des personnes (françaises ou étrangères) gardées à vue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principe et bénéficiaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exception mahoraise</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AME n'existe pas à Mayotte, mais les soins sont pris en charge par l’agence régionale de santé. Les personnes en situation irrégulière ne disposent d’aucune protection et doivent payer leurs soins, malgré les demandes du Défenseur des droits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les différentes AME</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organisée aux articles article L251-1 et suivants du Code de l'action sociale et des familles, l'AME est divisée en trois régimes. Le premier alinéa de l'article prévoit l'AME « de droit commun », le deuxième alinéa de « l’AME humanitaire » et le troisième établissant l’aide médicale dont bénéficient les personnes gardées à vue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les différentes AME</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'AME de droit commun</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« Tout étranger résidant en France de manière ininterrompue depuis plus de trois mois, sans remplir la condition de régularité mentionnée à l'article L. 380-1 du code de la sécurité sociale et dont les ressources ne dépassent pas le plafond mentionné à l'article L. 861-1 de ce code a droit, pour lui-même et les personnes à sa charge au sens de l'article L. 161-14 et des 1° à 3° de l'article L. 313-3 de ce code, à l'aide médicale de l'État, sous réserve, s'il est majeur, de s'être acquitté, à son propre titre et au titre des personnes majeures à sa charge telles que définies ci-dessus, du droit annuel mentionné à l'article 968 E du code général des impôts. ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les différentes AME</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L'AME humanitaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« En outre, toute personne qui, ne résidant pas en France, est présente sur le territoire français, et dont l'état de santé le justifie, peut, par décision individuelle prise par le ministre chargé de l'action sociale, bénéficier de l'aide médicale de l'État dans les conditions prévues par l'article L. 252-1. Dans ce cas, la prise en charge des dépenses mentionnées à l'article L. 251-2 peut être partielle. ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les différentes AME</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L'AME de garde à vue</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>« De même, toute personne gardée à vue sur le territoire français, qu'elle réside ou non en France, peut, si son état de santé le justifie, bénéficier de l'aide médicale de l'État, dans des conditions définies par décret. ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Les ayants droit de l'AME</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le conjoint ou compagnon du titulaire du droit
-« La personne qui vit maritalement avec un assuré social, et qui se trouve à sa charge effective, totale et permanente, a, à condition d'en apporter la preuve, la qualité d'ayant droit de l'assuré pour l'ouverture du droit aux prestations en nature des assurances maladie et maternité. Il en est de même de la personne liée à un assuré social par un pacte civil de solidarité lorsqu'elle ne peut bénéficier de la qualité d'assuré social à un autre titre.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le conjoint ou compagnon du titulaire du droit</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>« La personne qui vit maritalement avec un assuré social, et qui se trouve à sa charge effective, totale et permanente, a, à condition d'en apporter la preuve, la qualité d'ayant droit de l'assuré pour l'ouverture du droit aux prestations en nature des assurances maladie et maternité. Il en est de même de la personne liée à un assuré social par un pacte civil de solidarité lorsqu'elle ne peut bénéficier de la qualité d'assuré social à un autre titre.
 La personne non visée par le premier alinéa du présent article et par les articles L. 313-3 et L. 381-4, qui vit depuis une durée fixée par décret en Conseil d'État avec un assuré social, et se trouve à sa charge effective, totale et permanente, a, à condition d'en apporter la preuve dans des conditions fixées par décret en Conseil d'État, la qualité d'ayant droit de l'assuré pour l'ouverture du droit aux prestations en nature des assurances maladie et maternité.
 L'alinéa précédent ne peut s'appliquer qu'à une seule personne remplissant ces conditions par assuré social. »
-— Article L.161-14 du Code de la sécurité sociale
-Les descendants du titulaire de l'AME et statut du mineur
-« Par membre de la famille, on entend :
+— Article L.161-14 du Code de la sécurité sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les ayants droit de l'AME</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les descendants du titulaire de l'AME et statut du mineur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Par membre de la famille, on entend :
 1°) le conjoint de l'assuré.
 Toutefois, le conjoint de l'assuré obligatoire ne peut prétendre aux prestations prévues aux articles L. 321-1 et L. 322-6 lorsqu'il bénéficie d'un régime obligatoire de sécurité sociale, lorsqu'il exerce, pour le compte de l'assuré ou d'un tiers personnellement, une activité professionnelle ne motivant pas son affiliation à un tel régime pour le risque maladie, lorsqu'il est inscrit au registre des métiers ou du commerce ou lorsqu'il exerce une profession libérale ;
 2°) jusqu'à un âge limite, les enfants non salariés, à la charge de l'assuré ou de son conjoint, que la filiation, y compris adoptive, soit légalement établie, qu'ils soient pupilles de la nation dont l'assuré est tuteur, ou enfants recueillis ;
@@ -646,238 +913,530 @@
 b) les enfants qui poursuivent leurs études ;
 c) les enfants qui, par suite d'infirmités ou de maladies chroniques, sont dans l’impossibilité permanente de se livrer à un travail salarié ; »
 — 1° à 3° de l'article L.313-3 du Code de la sécurité sociale
-Cependant, « les mineurs sont éligibles à l’AME dès leur arrivée sur le territoire, en application de la convention internationale des droits de l’enfant (article 3-1) et ainsi que rappelé par l’arrêt du Conseil d’État du 7 juin 2006 »[36].
+Cependant, « les mineurs sont éligibles à l’AME dès leur arrivée sur le territoire, en application de la convention internationale des droits de l’enfant (article 3-1) et ainsi que rappelé par l’arrêt du Conseil d’État du 7 juin 2006 ».
 De ce fait, certains ressortissants français sont couverts par l'AME. C'est le cas notamment d'un enfant français qui serait à la charge d'une personne en situation irrégulière, éventuellement en cours de régularisation au bénéfice de son statut non encore reconnu de "parent d'enfant français". Ce cas de figure concerne plusieurs dizaines d'enfants français élevés par leur mère étrangère en situation irrégulière après le départ du père (français et non marié avec la mère) de l'enfant.
-Profil moyen des bénéficiaires
-Le bénéficiaire type de cette prestation sociale « est un homme jeune âgé de 30 à 34 ans ». Pour les deux tiers d'entre eux, les bénéficiaires se trouvent en région parisienne, dans les Bouches-du-Rhône et en Guyane[37].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les ayants droit de l'AME</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Profil moyen des bénéficiaires</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bénéficiaire type de cette prestation sociale « est un homme jeune âgé de 30 à 34 ans ». Pour les deux tiers d'entre eux, les bénéficiaires se trouvent en région parisienne, dans les Bouches-du-Rhône et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Étendue des droits ouverts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100 % des soins médicaux et d'hospitalisation en cas de maladie ou de maternité dans la limite des tarifs de la sécurité sociale, ceci sans avoir à avancer les frais (procédure dite du tiers payant)[32]. Il n'y a donc à payer ni franchise médicale ni participation forfaitaire ni forfait hospitalier ni ticket modérateur ni forfait 18 €. Toutefois les conditions suivantes doivent être respectées :
-Nature des actes, produits et prestations prescrits
-Les frais médicaux ne sont pas pris en charge dans les 2 cas suivants (un décret à paraître doit préciser les conditions d'application.) :
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 % des soins médicaux et d'hospitalisation en cas de maladie ou de maternité dans la limite des tarifs de la sécurité sociale, ceci sans avoir à avancer les frais (procédure dite du tiers payant). Il n'y a donc à payer ni franchise médicale ni participation forfaitaire ni forfait hospitalier ni ticket modérateur ni forfait 18 €. Toutefois les conditions suivantes doivent être respectées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Étendue des droits ouverts</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nature des actes, produits et prestations prescrits</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les frais médicaux ne sont pas pris en charge dans les 2 cas suivants (un décret à paraître doit préciser les conditions d'application.) :
 actes, produits et prestations dont le service médical rendu n'a pas été qualifié de moyen ou d'important.
 actes, produits et prestations non destinés directement au traitement ou à la prévention d'une maladie.
 Cependant, pour les enfants mineurs, les frais médicaux sont pris en charge à 100 % dans tous les cas.
-Coût des soins hospitaliers
-À l'exception des soins délivrés aux enfants mineurs et des soins imprévus, la prise en charge des soins hospitaliers dont le coût dépasse une certaine somme est soumise à l'accord préalable de la caisse d'assurance maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Étendue des droits ouverts</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Coût des soins hospitaliers</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'exception des soins délivrés aux enfants mineurs et des soins imprévus, la prise en charge des soins hospitaliers dont le coût dépasse une certaine somme est soumise à l'accord préalable de la caisse d'assurance maladie.
 Un décret à paraître doit préciser la procédure d'agrément et fixer le coût au-delà duquel la procédure doit être appliquée.
-Acceptation des médicaments génériques
-Les frais de médicaments sont pris en charge à condition d'accepter les médicaments génériques (sauf si le médecin a indiqué sur l'ordonnance qu'il s'opposait à la substitution d'un médicament par un générique).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Étendue des droits ouverts</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Acceptation des médicaments génériques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les frais de médicaments sont pris en charge à condition d'accepter les médicaments génériques (sauf si le médecin a indiqué sur l'ordonnance qu'il s'opposait à la substitution d'un médicament par un générique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Conditions d'application</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AME est définie à l'article L. 251-1 du code de l'action sociale et des familles ainsi qu'au titre IV du décret du 2 septembre 1954 dans sa version modifiée par un décret du 28 juillet 2005[38].
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AME est définie à l'article L. 251-1 du code de l'action sociale et des familles ainsi qu'au titre IV du décret du 2 septembre 1954 dans sa version modifiée par un décret du 28 juillet 2005.
 L'AME donne droit :
 à tous les soins médicaux conventionnés (soin d'urgence) et aux prescriptions médicales, aussi bien en hôpital qu'en médecine de ville, dans la limite des tarifs conventionnels ; l'automédication n'est pas prise en charge, elle reste à la charge de l'usager quand il la demande à la pharmacie comme pour les autres couvertures sociales.
 à l'exonération des diverses retenues applicables à la plupart des autres assurés : franchise, participation forfaitaire, forfait journalier hospitalier, ticket modérateur et forfait 18 €.
 Le bénéficiaire de l'AME doit résider en France depuis plus de trois mois, ce qu'il doit prouver en fournissant un justificatif de présence de plus de trois mois et moins de douze mois(visa expiré, facture d'hôtel, inscription scolaire…). Ses ressources doivent être inférieures au plafond fixé pour la CMU complémentaire (8 592,96 € par an pour une personne seule, au 1er juillet 2013). L'AME doit être redemandée chaque année.
 L'AME peut aussi être attribuée, sur décision du ministre chargé de l'action sociale, à certaines personnes qui sont de passage en France. D'autre part, les personnes en situation irrégulière, présentes depuis moins de trois mois mais désireuses de s'installer en France bénéficient d'une prise en charge limitée aux soins les plus urgents, dont l'absence mettrait en jeu le pronostic vital ou pourrait conduire à une altération de l'état de santé de la personne ou d'un enfant à naître.
-Le périmètre d'application de l'AME est en réalité assez large. Dès trois mois de présence sur le sol français, « l’AME permet la prise en charge à 100 % des soins médicaux et hospitaliers (tarifs conventionnés) et sans avance de frais pour : les soins médicaux et dentaires, les médicaments, les frais d’analyses, les frais d’hospitalisation et d’intervention chirurgicale, les frais pour certaines vaccinations et certains dépistages, les frais liés à la contraception, à l’interruption volontaire de grossesse, etc »[39]. Au bout de 9 mois de présence en France, le périmètre s’élargit encore aux soins liés à « des pathologies non sévères ». Parmi celles-ci, on trouve les interventions pour oreilles décollées, mais aussi les prothèses de genou, prothèses d’épaule, prothèses de hanche, ou encore gastroplasties pour obésité. Pour toutes ces prestations, les transports ainsi que les actes de masso-kinésithérapie prescrits a posteriori sont pris en charge. Jusqu’en 2011, la procréation médicalement assistée (PMA) et les cures thermales étaient également remboursées[39].
-Selon Jean-François Corty, vice-président de Médecins du Monde, il s'agit d'une diffusion de fausses allégations « certains propos d'élus mentionnant des abus pour de la chirurgie esthétique ou des cures thermales relèvent tout simplement du fantasme »[40].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Le périmètre d'application de l'AME est en réalité assez large. Dès trois mois de présence sur le sol français, « l’AME permet la prise en charge à 100 % des soins médicaux et hospitaliers (tarifs conventionnés) et sans avance de frais pour : les soins médicaux et dentaires, les médicaments, les frais d’analyses, les frais d’hospitalisation et d’intervention chirurgicale, les frais pour certaines vaccinations et certains dépistages, les frais liés à la contraception, à l’interruption volontaire de grossesse, etc ». Au bout de 9 mois de présence en France, le périmètre s’élargit encore aux soins liés à « des pathologies non sévères ». Parmi celles-ci, on trouve les interventions pour oreilles décollées, mais aussi les prothèses de genou, prothèses d’épaule, prothèses de hanche, ou encore gastroplasties pour obésité. Pour toutes ces prestations, les transports ainsi que les actes de masso-kinésithérapie prescrits a posteriori sont pris en charge. Jusqu’en 2011, la procréation médicalement assistée (PMA) et les cures thermales étaient également remboursées.
+Selon Jean-François Corty, vice-président de Médecins du Monde, il s'agit d'une diffusion de fausses allégations « certains propos d'élus mentionnant des abus pour de la chirurgie esthétique ou des cures thermales relèvent tout simplement du fantasme ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Coût</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l’indique, l'AME est financé par le budget de l'État et non l'assurance maladie. Plus précisément, les dépenses sont une des deux actions (avec le Fonds d'indemnisation des victimes de l'amiante) du programme « Protection maladie » de la mission « santé ». Pour 2022, le budget présenté dans le projet de loi de finances est de 1 079 M€, décomposés en
 1 008 M€ pour l'AME de droit commun,
 70 M€ pour les soins urgents,
-1 M€ pour l'AME humanitaire et l’aide médicale pour les personnes gardées à vue[47].
-Ce qui équivaut à un peu moins de 0,5 % des dépenses de santé de l'Assurance maladie (254,9 milliards d'euros)[40].
-En 2021, le Sénat pointe du doigt la sous-budgétisation des crédits prévus pour l'AME par rapport aux dépenses effectives qui amène a un déficit ainsi que « des solutions insuffisantes pour endiguer le flux »[43].
-Le nombre de bénéficiaires au 31 décembre 2020 est de 382 899, il était de 208 974 au 31 décembre 2011 et de 180 415 au 31 décembre 2003[47]. Le budget était de 588 M€ en 2012[48] et 233,48 M€ en 2007[49].
-Le nombre de bénéficiaires s’éleve à 403 144 personnes fin 2022, en hausse de 5,9 % par rapport à 2021 et de 20,5 % par rapport à 2019[39].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+1 M€ pour l'AME humanitaire et l’aide médicale pour les personnes gardées à vue.
+Ce qui équivaut à un peu moins de 0,5 % des dépenses de santé de l'Assurance maladie (254,9 milliards d'euros).
+En 2021, le Sénat pointe du doigt la sous-budgétisation des crédits prévus pour l'AME par rapport aux dépenses effectives qui amène a un déficit ainsi que « des solutions insuffisantes pour endiguer le flux ».
+Le nombre de bénéficiaires au 31 décembre 2020 est de 382 899, il était de 208 974 au 31 décembre 2011 et de 180 415 au 31 décembre 2003. Le budget était de 588 M€ en 2012 et 233,48 M€ en 2007.
+Le nombre de bénéficiaires s’éleve à 403 144 personnes fin 2022, en hausse de 5,9 % par rapport à 2021 et de 20,5 % par rapport à 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Difficultés administratives</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prescrire (revue)[50] et le Comede décrivent en Mars 2022 l'acharnement administratif déraisonnable contre un usager, pour simplement faire valoir des droits et obtenir une carte d'AME, difficultés signalées depuis des années, ex 2010[51].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prescrire (revue) et le Comede décrivent en Mars 2022 l'acharnement administratif déraisonnable contre un usager, pour simplement faire valoir des droits et obtenir une carte d'AME, difficultés signalées depuis des années, ex 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Critiques du fonctionnement de l'AME</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AME est soupçonnée de dérives, alors qu'elle est très contrôlée par l'Igas et l'Inspection générale des finances (rapports en 2003, 2007, 2010 et 2019). Elle est remise en question, principalement par les sénateurs de droite et d'extrême droite[40].
-Inégalité devant l'accès au soin
-Pour justifier cette modification des conditions d'accès à l'AME, par exemple, le député UMP Dominique Tian déclarait qu'« un travailleur qui paye ses cotisations sociales obligatoires mais qui n'a pas de mutuelle complémentaire a une moins bonne couverture qu'un étranger en situation irrégulière bénéficiaire de l'AME »[52], ce qui est faux et participe aux fausses informations circulant sur l'AME afin de justifier son abrogation ou des changements[53],[54].
-Des études sociologiques montrent que l'obtention de cette aide relève d'un parcours du combattant, et que seules 51 % des personnes éligibles sont effectivement couvertes[40].
-Tourisme médical
-Le chirurgien français spécialiste de la greffe de visage, Laurent Lantieri, dans un entretien au journal L'Express, affirme que les principes du service public sont dévoyés avec l'AME et dénonce des formes de tourisme médical aux frais du contribuable[55]. Claudine Blanchet-Bardon, spécialiste des maladies génétiques de la peau, rejoint cette analyse[56]. Ces « séjours sanitaires » ont été recensés dans un rapport de l’Inspection générale des affaires sociales (IGAS) dès 2003.
-Selon un prérapport remis à la première ministre en 2023, confié à Claude Évin et Patrick Stéfanini, l'AME n'est pas un facteur d'attractivité pour les étrangers. Pour Jean-François Corty, vice-président de Médecins du Monde, « le supposé appel d'air n'existe pas dans le monde réel, ce n'est qu'une vue de l'esprit »[40].
-Facilité des fraudes : impossibilité dans les faits de contrôle des ressources et de la réalité du séjour des demandeurs
-En théorie, tout prétendant à l'AME doit justifier d'une condition de ressources (767€ maximum par mois / 854€/ mois (DOM)). Dans les faits, ces individus étant "sans papiers", une déclaration sur l'honneur suffit, ce qui sous-entend de possibles dérives. Il en est de même pour la condition de résidence (supérieure ou égale à trois mois de présence sur le territoire Français).
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AME est soupçonnée de dérives, alors qu'elle est très contrôlée par l'Igas et l'Inspection générale des finances (rapports en 2003, 2007, 2010 et 2019). Elle est remise en question, principalement par les sénateurs de droite et d'extrême droite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Critiques du fonctionnement de l'AME</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Inégalité devant l'accès au soin</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour justifier cette modification des conditions d'accès à l'AME, par exemple, le député UMP Dominique Tian déclarait qu'« un travailleur qui paye ses cotisations sociales obligatoires mais qui n'a pas de mutuelle complémentaire a une moins bonne couverture qu'un étranger en situation irrégulière bénéficiaire de l'AME », ce qui est faux et participe aux fausses informations circulant sur l'AME afin de justifier son abrogation ou des changements,.
+Des études sociologiques montrent que l'obtention de cette aide relève d'un parcours du combattant, et que seules 51 % des personnes éligibles sont effectivement couvertes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Critiques du fonctionnement de l'AME</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tourisme médical</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chirurgien français spécialiste de la greffe de visage, Laurent Lantieri, dans un entretien au journal L'Express, affirme que les principes du service public sont dévoyés avec l'AME et dénonce des formes de tourisme médical aux frais du contribuable. Claudine Blanchet-Bardon, spécialiste des maladies génétiques de la peau, rejoint cette analyse. Ces « séjours sanitaires » ont été recensés dans un rapport de l’Inspection générale des affaires sociales (IGAS) dès 2003.
+Selon un prérapport remis à la première ministre en 2023, confié à Claude Évin et Patrick Stéfanini, l'AME n'est pas un facteur d'attractivité pour les étrangers. Pour Jean-François Corty, vice-président de Médecins du Monde, « le supposé appel d'air n'existe pas dans le monde réel, ce n'est qu'une vue de l'esprit ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Critiques du fonctionnement de l'AME</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Facilité des fraudes : impossibilité dans les faits de contrôle des ressources et de la réalité du séjour des demandeurs</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En théorie, tout prétendant à l'AME doit justifier d'une condition de ressources (767€ maximum par mois / 854€/ mois (DOM)). Dans les faits, ces individus étant "sans papiers", une déclaration sur l'honneur suffit, ce qui sous-entend de possibles dérives. Il en est de même pour la condition de résidence (supérieure ou égale à trois mois de présence sur le territoire Français).
 Le calcul des ressources pour les étrangers en situation irrégulière se fait sans vérification. En 2003, L’IGAS évoquait des inscriptions multiples, l’utilisation de l’aide médicale par des tiers, des impostures commises par certains bénéficiaires de l’AME se faisant passer pour des étrangers en situation irrégulière pour pouvoir accéder à la complète gratuité des soins[réf. souhaitée].
-Les rapporteurs constataient enfin que, même lorsqu’elles étaient avérées, ces fraudes n’étaient jamais suivies de poursuites[57].
-Jean Leonetti, vice-président du groupe UMP de l'Assemblée nationale, avance en 2010 que l'AME serait utilisée par « des filières de fraudes »[58].
-Incohérence réglementaire
-En dehors du cas particulier des personnes à qui on a accordé le statut de « réfugié », les bénéficiaires majoritaires de l'AME, « sans papier » résident de façon irrégulière sur le territoire national, soit qu'ils y soient entrés clandestinement, soit qu'ils y soient restés après expiration d'un titre de séjour régulièrement émis. A ce titre, la seule mesure retenue par le législateur, est la rétention administrative avant expulsion. Ce droit à la santé, reconnu même à des personnes résidant sans titre, illustre à la fois le caractère idéaliste de la devise française (idéal de Fraternité) et le caractère pragmatique des politiques de santé publique, en évitant le développement de certaines affections (tuberculose, gale par exemple) au sein de populations marginalisées, avant qu'elles ne se répandent parmi l'ensemble de la population.[réf. nécessaire]
-Depuis 2011, l'AME exclut les frais de cure thermale ou de procréation médicalement assistée[59],[60].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+Les rapporteurs constataient enfin que, même lorsqu’elles étaient avérées, ces fraudes n’étaient jamais suivies de poursuites.
+Jean Leonetti, vice-président du groupe UMP de l'Assemblée nationale, avance en 2010 que l'AME serait utilisée par « des filières de fraudes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Critiques du fonctionnement de l'AME</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Incohérence réglementaire</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors du cas particulier des personnes à qui on a accordé le statut de « réfugié », les bénéficiaires majoritaires de l'AME, « sans papier » résident de façon irrégulière sur le territoire national, soit qu'ils y soient entrés clandestinement, soit qu'ils y soient restés après expiration d'un titre de séjour régulièrement émis. A ce titre, la seule mesure retenue par le législateur, est la rétention administrative avant expulsion. Ce droit à la santé, reconnu même à des personnes résidant sans titre, illustre à la fois le caractère idéaliste de la devise française (idéal de Fraternité) et le caractère pragmatique des politiques de santé publique, en évitant le développement de certaines affections (tuberculose, gale par exemple) au sein de populations marginalisées, avant qu'elles ne se répandent parmi l'ensemble de la population.[réf. nécessaire]
+Depuis 2011, l'AME exclut les frais de cure thermale ou de procréation médicalement assistée,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aide_médicale_d'État</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aide_m%C3%A9dicale_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Défense de l'AME</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La suppression de l'AME poserait un grave problème de santé publique, sur le plan sanitaire, économique et éthique.  La restriction de l'accès aux soins des plus précaires conduirait à la propagation et l'aggravation de maladies évolutives. Cela se traduirait par un afflux de patients arrivant plus tard, avec des troubles plus sévères et coûtant encore plus cher[40].
-Sur cette base, la plupart des leaders d'organisations médicales défendent le maintien de l'AME : c'est le cas de la CSMF, de MG France, de UFML (Union Française pour une Médecine Libre), de l'ISNI (InterSyndicale Nationale des Internes), et de la conférence nationale des présidents de CME de CHU[40].
-En octobre 2023, le président du Comité consultatif national d'éthique pour les sciences de la vie et de la santé, Jean-François Delfraissy prend position pour la sauvegarde de l'AME considérée comme un dispositif indispensable : priorité doit être donnée au respect de la dignité des personnes, à la fraternité et à la solidarité. En 2017, un avis du CCNE sur la santé des migrants[61] dénonçait une « instrumentalisation de la santé comme outil de refoulement ». D'autres voix, allant dans le même sens, se font entendre comme celles des fédérations hospitalières et de l'Ordre des médecins, de Médecins du monde ou du Comede[40].
-Le 11 novembre 2023, dans un appel transmis à l'AFP, 3500 médecins signent une « déclaration de désobéissance » après l'adoption par le sénat d'un amendement supprimant l'AME pour la transformer en « aide médicale d'urgence ». Parmi les signataires se trouvent Antoine Pelissolo et Patrick Pelloux[62].
-Dans un communiqué publié le 28 novembre 2023 (voté par 70 voix pour, 7 contre et 8 abstentions), l'Académie nationale de médecine rappelle la nécessité de maintenir l'AME « qui obéit au principe qui guide notre éthique de médecin avec le devoir de prendre en charge tout patient, quelle que soit sa situation, régulière ou non » et qui conclut « L’ANM réaffirme son opposition à toute restriction du champ d’application des soins qui implique la distinction artificielle entre soins urgents et non-urgents »[63].
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La suppression de l'AME poserait un grave problème de santé publique, sur le plan sanitaire, économique et éthique.  La restriction de l'accès aux soins des plus précaires conduirait à la propagation et l'aggravation de maladies évolutives. Cela se traduirait par un afflux de patients arrivant plus tard, avec des troubles plus sévères et coûtant encore plus cher.
+Sur cette base, la plupart des leaders d'organisations médicales défendent le maintien de l'AME : c'est le cas de la CSMF, de MG France, de UFML (Union Française pour une Médecine Libre), de l'ISNI (InterSyndicale Nationale des Internes), et de la conférence nationale des présidents de CME de CHU.
+En octobre 2023, le président du Comité consultatif national d'éthique pour les sciences de la vie et de la santé, Jean-François Delfraissy prend position pour la sauvegarde de l'AME considérée comme un dispositif indispensable : priorité doit être donnée au respect de la dignité des personnes, à la fraternité et à la solidarité. En 2017, un avis du CCNE sur la santé des migrants dénonçait une « instrumentalisation de la santé comme outil de refoulement ». D'autres voix, allant dans le même sens, se font entendre comme celles des fédérations hospitalières et de l'Ordre des médecins, de Médecins du monde ou du Comede.
+Le 11 novembre 2023, dans un appel transmis à l'AFP, 3500 médecins signent une « déclaration de désobéissance » après l'adoption par le sénat d'un amendement supprimant l'AME pour la transformer en « aide médicale d'urgence ». Parmi les signataires se trouvent Antoine Pelissolo et Patrick Pelloux.
+Dans un communiqué publié le 28 novembre 2023 (voté par 70 voix pour, 7 contre et 8 abstentions), l'Académie nationale de médecine rappelle la nécessité de maintenir l'AME « qui obéit au principe qui guide notre éthique de médecin avec le devoir de prendre en charge tout patient, quelle que soit sa situation, régulière ou non » et qui conclut « L’ANM réaffirme son opposition à toute restriction du champ d’application des soins qui implique la distinction artificielle entre soins urgents et non-urgents ».
 </t>
         </is>
       </c>
